--- a/results/summary.xlsx
+++ b/results/summary.xlsx
@@ -483,22 +483,22 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9536666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7721187423687423</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8306504292808634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.8155064480672459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.7640632600935203</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.8152144772643263</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary.xlsx
+++ b/results/summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,6 @@
           <t>ROUGE-1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ROUGE-2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ROUGE-L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -483,22 +473,16 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9536666666666666</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7721187423687423</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8306504292808634</v>
+        <v>0.8033333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8155064480672459</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7640632600935203</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8152144772643263</v>
+        <v>0.7530091485447581</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary.xlsx
+++ b/results/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
         <v>0.001</v>
       </c>
       <c r="C2" t="n">
-        <v>4.776666666666667</v>
+        <v>0.8300114457558273</v>
       </c>
       <c r="D2" t="n">
-        <v>4.299761904761905</v>
+        <v>0.7915470841965732</v>
       </c>
       <c r="E2" t="n">
-        <v>4.422020202020202</v>
+        <v>0.7782804609958788</v>
       </c>
       <c r="F2" t="n">
-        <v>4.512664323102308</v>
+        <v>0.8284575478508657</v>
       </c>
       <c r="G2" t="n">
-        <v>4.25388737260877</v>
+        <v>0.7688617347966722</v>
       </c>
       <c r="H2" t="n">
-        <v>4.504972015409999</v>
+        <v>0.8240723542800704</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.735761904761905</v>
+        <v>0.8295297742443334</v>
       </c>
       <c r="D3" t="n">
-        <v>4.248087301587299</v>
+        <v>0.792894407632566</v>
       </c>
       <c r="E3" t="n">
-        <v>4.36167876567877</v>
+        <v>0.7783343005057132</v>
       </c>
       <c r="F3" t="n">
-        <v>4.487794591198099</v>
+        <v>0.8284319002284807</v>
       </c>
       <c r="G3" t="n">
-        <v>4.212489754790791</v>
+        <v>0.7685955222220381</v>
       </c>
       <c r="H3" t="n">
-        <v>4.48195006801235</v>
+        <v>0.8238437536823762</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,233 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8273510348240765</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.791679895033229</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7761615612038371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8271270088148999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7671546042467117</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8225830749308044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8289023745289795</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7911050863825863</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7768582104647008</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8253892955251706</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7645872318682709</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8207604875019869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8274348343094843</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7873699205600815</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.77371019819639</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8215022894017578</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7597771217327933</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8167724325280509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8290481388278373</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78637269753646</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7733760753431626</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8164934976011895</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7540640662914666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8116982198262392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8252139663441143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7852555317118037</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7709409303718634</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8133768768790195</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.750097821778277</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8084242215279149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.824502889615484</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7811185446376095</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7677309600574654</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8089445195074247</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7446130268843639</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8039031926447576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8242550800931426</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7794412229886776</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7662984979372558</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8038453457556874</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.738022375388897</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7984995282374352</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8281017219503934</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7780193962011592</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7672883547216045</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.803398763279219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7364718684501106</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.797887671440335</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.717000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.240531746031746</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.343084471084472</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.483922229243166</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.161104082359092</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.478554873637051</v>
+      <c r="C12" t="n">
+        <v>0.8257809839657323</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7745863463029883</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7637978155767071</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7974591623991957</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7298635632700952</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7917898360985201</v>
       </c>
     </row>
   </sheetData>
